--- a/ORG_SQUAD.xlsx
+++ b/ORG_SQUAD.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5930F3B9-4518-4269-8C11-C6145C231E79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAD58FB-080B-4553-8AD2-078BE7087199}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="897">
   <si>
     <t>ORG_SQUAD_PK</t>
   </si>
@@ -2702,6 +2702,15 @@
   </si>
   <si>
     <t>หมู่ 1</t>
+  </si>
+  <si>
+    <t>ORG_SQUAD_IDENOLD</t>
+  </si>
+  <si>
+    <t>ORG_SQUAD_IDENNEW</t>
+  </si>
+  <si>
+    <t>ORG_SQUAD_STATUS</t>
   </si>
 </sst>
 </file>
@@ -3022,18 +3031,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C938"/>
+  <dimension ref="A1:F938"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A925" workbookViewId="0">
-      <selection activeCell="C945" sqref="C945"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="25.90625" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="3" width="41.28515625" customWidth="1"/>
+    <col min="4" max="11" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3043,8 +3054,17 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="E1" t="s">
+        <v>895</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>16001</v>
       </c>
@@ -3055,7 +3075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>16002</v>
       </c>
@@ -3066,7 +3086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>16003</v>
       </c>
@@ -3077,7 +3097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>16004</v>
       </c>
@@ -3088,7 +3108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>16005</v>
       </c>
@@ -3099,7 +3119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>16006</v>
       </c>
@@ -3110,7 +3130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>16007</v>
       </c>
@@ -3121,7 +3141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>16008</v>
       </c>
@@ -3132,7 +3152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>16009</v>
       </c>
@@ -3143,7 +3163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>16010</v>
       </c>
@@ -3154,7 +3174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>16011</v>
       </c>
@@ -3165,7 +3185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>16012</v>
       </c>
@@ -3176,7 +3196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>16013</v>
       </c>
@@ -3187,7 +3207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>16014</v>
       </c>
@@ -3198,7 +3218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16015</v>
       </c>
@@ -3209,7 +3229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16016</v>
       </c>
@@ -3220,7 +3240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16017</v>
       </c>
@@ -3231,7 +3251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16018</v>
       </c>
@@ -3242,7 +3262,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16019</v>
       </c>
@@ -3253,7 +3273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>16020</v>
       </c>
@@ -3264,7 +3284,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>16021</v>
       </c>
@@ -3275,7 +3295,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>16022</v>
       </c>
@@ -3286,7 +3306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>16023</v>
       </c>
@@ -3297,7 +3317,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>16024</v>
       </c>
@@ -3308,7 +3328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>16025</v>
       </c>
@@ -3319,7 +3339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>16026</v>
       </c>
@@ -3330,7 +3350,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>16027</v>
       </c>
@@ -3341,7 +3361,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>16028</v>
       </c>
@@ -3352,7 +3372,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>16029</v>
       </c>
@@ -3363,7 +3383,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>16030</v>
       </c>
@@ -3374,7 +3394,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>16031</v>
       </c>
@@ -3385,7 +3405,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>16032</v>
       </c>
@@ -3396,7 +3416,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>16033</v>
       </c>
@@ -3407,7 +3427,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>16034</v>
       </c>
@@ -3418,7 +3438,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>16035</v>
       </c>
@@ -3429,7 +3449,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>16036</v>
       </c>
@@ -3440,7 +3460,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>16037</v>
       </c>
@@ -3451,7 +3471,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>16038</v>
       </c>
@@ -3462,7 +3482,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>16039</v>
       </c>
@@ -3473,7 +3493,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>16040</v>
       </c>
@@ -3484,7 +3504,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>16041</v>
       </c>
@@ -3495,7 +3515,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>16042</v>
       </c>
@@ -3506,7 +3526,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>16043</v>
       </c>
@@ -3517,7 +3537,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>16044</v>
       </c>
@@ -3528,7 +3548,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>16045</v>
       </c>
@@ -3539,7 +3559,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>16046</v>
       </c>
@@ -3550,7 +3570,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>16047</v>
       </c>
@@ -3561,7 +3581,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>16048</v>
       </c>
@@ -3572,7 +3592,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>16049</v>
       </c>
@@ -3583,7 +3603,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>16050</v>
       </c>
@@ -3594,7 +3614,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>16051</v>
       </c>
@@ -3605,7 +3625,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>16052</v>
       </c>
@@ -3616,7 +3636,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>16053</v>
       </c>
@@ -3627,7 +3647,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>16054</v>
       </c>
@@ -3638,7 +3658,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>16055</v>
       </c>
@@ -3649,7 +3669,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>16056</v>
       </c>
@@ -3660,7 +3680,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>16057</v>
       </c>
@@ -3671,7 +3691,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>16058</v>
       </c>
@@ -3682,7 +3702,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>16059</v>
       </c>
@@ -3693,7 +3713,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>16060</v>
       </c>
@@ -3704,7 +3724,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>16061</v>
       </c>
@@ -3715,7 +3735,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>16062</v>
       </c>
@@ -3726,7 +3746,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>16063</v>
       </c>
@@ -3737,7 +3757,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>16064</v>
       </c>
@@ -3748,7 +3768,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>16065</v>
       </c>
@@ -3759,7 +3779,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>16066</v>
       </c>
@@ -3770,7 +3790,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>16067</v>
       </c>
@@ -3781,7 +3801,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>16068</v>
       </c>
@@ -3792,7 +3812,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>16069</v>
       </c>
@@ -3803,7 +3823,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>16070</v>
       </c>
@@ -3814,7 +3834,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>16071</v>
       </c>
@@ -3825,7 +3845,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>16072</v>
       </c>
@@ -3836,7 +3856,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>16073</v>
       </c>
@@ -3847,7 +3867,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>16074</v>
       </c>
@@ -3858,7 +3878,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>16075</v>
       </c>
@@ -3869,7 +3889,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>16076</v>
       </c>
@@ -3880,7 +3900,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>16077</v>
       </c>
@@ -3891,7 +3911,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>16078</v>
       </c>
@@ -3902,7 +3922,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>16079</v>
       </c>
@@ -3913,7 +3933,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>16080</v>
       </c>
@@ -3924,7 +3944,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>16081</v>
       </c>
@@ -3935,7 +3955,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>16082</v>
       </c>
@@ -3946,7 +3966,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>16083</v>
       </c>
@@ -3957,7 +3977,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>16084</v>
       </c>
@@ -3968,7 +3988,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>16085</v>
       </c>
@@ -3979,7 +3999,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>16086</v>
       </c>
@@ -3990,7 +4010,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>16087</v>
       </c>
@@ -4001,7 +4021,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>16088</v>
       </c>
@@ -4012,7 +4032,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>16089</v>
       </c>
@@ -4023,7 +4043,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>16090</v>
       </c>
@@ -4034,7 +4054,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>16091</v>
       </c>
@@ -4045,7 +4065,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>16092</v>
       </c>
@@ -4056,7 +4076,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>16093</v>
       </c>
@@ -4067,7 +4087,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>16094</v>
       </c>
@@ -4078,7 +4098,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>16095</v>
       </c>
@@ -4089,7 +4109,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>16096</v>
       </c>
@@ -4100,7 +4120,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>16097</v>
       </c>
@@ -4111,7 +4131,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>16098</v>
       </c>
@@ -4122,7 +4142,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>16099</v>
       </c>
@@ -4133,7 +4153,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>16100</v>
       </c>
@@ -4144,7 +4164,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>16101</v>
       </c>
@@ -4155,7 +4175,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>16102</v>
       </c>
@@ -4166,7 +4186,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>16103</v>
       </c>
@@ -4177,7 +4197,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>16104</v>
       </c>
@@ -4188,7 +4208,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>16105</v>
       </c>
@@ -4199,7 +4219,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>16106</v>
       </c>
@@ -4210,7 +4230,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>16107</v>
       </c>
@@ -4221,7 +4241,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>16108</v>
       </c>
@@ -4232,7 +4252,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>16109</v>
       </c>
@@ -4243,7 +4263,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>16110</v>
       </c>
@@ -4254,7 +4274,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>16111</v>
       </c>
@@ -4265,7 +4285,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>16112</v>
       </c>
@@ -4276,7 +4296,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>16113</v>
       </c>
@@ -4287,7 +4307,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>16114</v>
       </c>
@@ -4298,7 +4318,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>16115</v>
       </c>
@@ -4309,7 +4329,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>16116</v>
       </c>
@@ -4320,7 +4340,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>16117</v>
       </c>
@@ -4331,7 +4351,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>16118</v>
       </c>
@@ -4342,7 +4362,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>16119</v>
       </c>
@@ -4353,7 +4373,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>16120</v>
       </c>
@@ -4364,7 +4384,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>16121</v>
       </c>
@@ -4375,7 +4395,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>16122</v>
       </c>
@@ -4386,7 +4406,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>16123</v>
       </c>
@@ -4397,7 +4417,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>16124</v>
       </c>
@@ -4408,7 +4428,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>16125</v>
       </c>
@@ -4419,7 +4439,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>16126</v>
       </c>
@@ -4430,7 +4450,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>16127</v>
       </c>
@@ -4441,7 +4461,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>16128</v>
       </c>
@@ -4452,7 +4472,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>16129</v>
       </c>
@@ -4463,7 +4483,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>16130</v>
       </c>
@@ -4474,7 +4494,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>16131</v>
       </c>
@@ -4485,7 +4505,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>16132</v>
       </c>
@@ -4496,7 +4516,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>16133</v>
       </c>
@@ -4507,7 +4527,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>16134</v>
       </c>
@@ -4518,7 +4538,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>16135</v>
       </c>
@@ -4529,7 +4549,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>16136</v>
       </c>
@@ -4540,7 +4560,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>16137</v>
       </c>
@@ -4551,7 +4571,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>16138</v>
       </c>
@@ -4562,7 +4582,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>16139</v>
       </c>
@@ -4573,7 +4593,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>16140</v>
       </c>
@@ -4584,7 +4604,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>16141</v>
       </c>
@@ -4595,7 +4615,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>16142</v>
       </c>
@@ -4606,7 +4626,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>16143</v>
       </c>
@@ -4617,7 +4637,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>16144</v>
       </c>
@@ -4628,7 +4648,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>16145</v>
       </c>
@@ -4639,7 +4659,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>16146</v>
       </c>
@@ -4650,7 +4670,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>16147</v>
       </c>
@@ -4661,7 +4681,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>16148</v>
       </c>
@@ -4672,7 +4692,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>16149</v>
       </c>
@@ -4683,7 +4703,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>16150</v>
       </c>
@@ -4694,7 +4714,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>16151</v>
       </c>
@@ -4705,7 +4725,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>16152</v>
       </c>
@@ -4716,7 +4736,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>16153</v>
       </c>
@@ -4727,7 +4747,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>16154</v>
       </c>
@@ -4738,7 +4758,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>16155</v>
       </c>
@@ -4749,7 +4769,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>16156</v>
       </c>
@@ -4760,7 +4780,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>16157</v>
       </c>
@@ -4771,7 +4791,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>16158</v>
       </c>
@@ -4782,7 +4802,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>16159</v>
       </c>
@@ -4793,7 +4813,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>16160</v>
       </c>
@@ -4804,7 +4824,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>16161</v>
       </c>
@@ -4815,7 +4835,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>16162</v>
       </c>
@@ -4826,7 +4846,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>16163</v>
       </c>
@@ -4837,7 +4857,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>16164</v>
       </c>
@@ -4848,7 +4868,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>16165</v>
       </c>
@@ -4859,7 +4879,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>16166</v>
       </c>
@@ -4870,7 +4890,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>16167</v>
       </c>
@@ -4881,7 +4901,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>16168</v>
       </c>
@@ -4892,7 +4912,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>16169</v>
       </c>
@@ -4903,7 +4923,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>16170</v>
       </c>
@@ -4914,7 +4934,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>16171</v>
       </c>
@@ -4925,7 +4945,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>16172</v>
       </c>
@@ -4936,7 +4956,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>16173</v>
       </c>
@@ -4947,7 +4967,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>16174</v>
       </c>
@@ -4958,7 +4978,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>16175</v>
       </c>
@@ -4969,7 +4989,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>16176</v>
       </c>
@@ -4980,7 +5000,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>16177</v>
       </c>
@@ -4991,7 +5011,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>16178</v>
       </c>
@@ -5002,7 +5022,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>16179</v>
       </c>
@@ -5013,7 +5033,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>16180</v>
       </c>
@@ -5024,7 +5044,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>16181</v>
       </c>
@@ -5035,7 +5055,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>16182</v>
       </c>
@@ -5046,7 +5066,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>16183</v>
       </c>
@@ -5057,7 +5077,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>16184</v>
       </c>
@@ -5068,7 +5088,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>16185</v>
       </c>
@@ -5079,7 +5099,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>16186</v>
       </c>
@@ -5090,7 +5110,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>16187</v>
       </c>
@@ -5101,7 +5121,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>16188</v>
       </c>
@@ -5112,7 +5132,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>16189</v>
       </c>
@@ -5123,7 +5143,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>16190</v>
       </c>
@@ -5134,7 +5154,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>16191</v>
       </c>
@@ -5145,7 +5165,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>16192</v>
       </c>
@@ -5156,7 +5176,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>16193</v>
       </c>
@@ -5167,7 +5187,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>16194</v>
       </c>
@@ -5178,7 +5198,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>16195</v>
       </c>
@@ -5189,7 +5209,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>16196</v>
       </c>
@@ -5200,7 +5220,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>16197</v>
       </c>
@@ -5211,7 +5231,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>16198</v>
       </c>
@@ -5222,7 +5242,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>16199</v>
       </c>
@@ -5233,7 +5253,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>16200</v>
       </c>
@@ -5244,7 +5264,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>16201</v>
       </c>
@@ -5255,7 +5275,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>16202</v>
       </c>
@@ -5266,7 +5286,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>16203</v>
       </c>
@@ -5277,7 +5297,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>16204</v>
       </c>
@@ -5288,7 +5308,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>16205</v>
       </c>
@@ -5299,7 +5319,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>16206</v>
       </c>
@@ -5310,7 +5330,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>16207</v>
       </c>
@@ -5321,7 +5341,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>16208</v>
       </c>
@@ -5332,7 +5352,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>16209</v>
       </c>
@@ -5343,7 +5363,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>16210</v>
       </c>
@@ -5354,7 +5374,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>16211</v>
       </c>
@@ -5365,7 +5385,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>16212</v>
       </c>
@@ -5376,7 +5396,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>16213</v>
       </c>
@@ -5387,7 +5407,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>16214</v>
       </c>
@@ -5398,7 +5418,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>16215</v>
       </c>
@@ -5409,7 +5429,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>16216</v>
       </c>
@@ -5420,7 +5440,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>16217</v>
       </c>
@@ -5431,7 +5451,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>16218</v>
       </c>
@@ -5442,7 +5462,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>16219</v>
       </c>
@@ -5453,7 +5473,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>16220</v>
       </c>
@@ -5464,7 +5484,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>16221</v>
       </c>
@@ -5475,7 +5495,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>16222</v>
       </c>
@@ -5486,7 +5506,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>16223</v>
       </c>
@@ -5497,7 +5517,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>16224</v>
       </c>
@@ -5508,7 +5528,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>16225</v>
       </c>
@@ -5519,7 +5539,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>16226</v>
       </c>
@@ -5530,7 +5550,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>16227</v>
       </c>
@@ -5541,7 +5561,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>16228</v>
       </c>
@@ -5552,7 +5572,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>16229</v>
       </c>
@@ -5563,7 +5583,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>16230</v>
       </c>
@@ -5574,7 +5594,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>16231</v>
       </c>
@@ -5585,7 +5605,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>16232</v>
       </c>
@@ -5596,7 +5616,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>16233</v>
       </c>
@@ -5607,7 +5627,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>16234</v>
       </c>
@@ -5618,7 +5638,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>16235</v>
       </c>
@@ -5629,7 +5649,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>16236</v>
       </c>
@@ -5640,7 +5660,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>16237</v>
       </c>
@@ -5651,7 +5671,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>16238</v>
       </c>
@@ -5662,7 +5682,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>16239</v>
       </c>
@@ -5673,7 +5693,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>16240</v>
       </c>
@@ -5684,7 +5704,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>16241</v>
       </c>
@@ -5695,7 +5715,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>16242</v>
       </c>
@@ -5706,7 +5726,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>16243</v>
       </c>
@@ -5717,7 +5737,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>16244</v>
       </c>
@@ -5728,7 +5748,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>16245</v>
       </c>
@@ -5739,7 +5759,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>16246</v>
       </c>
@@ -5750,7 +5770,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>16247</v>
       </c>
@@ -5761,7 +5781,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>16248</v>
       </c>
@@ -5772,7 +5792,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>16249</v>
       </c>
@@ -5783,7 +5803,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>16250</v>
       </c>
@@ -5794,7 +5814,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>16251</v>
       </c>
@@ -5805,7 +5825,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>16252</v>
       </c>
@@ -5816,7 +5836,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>16253</v>
       </c>
@@ -5827,7 +5847,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>16254</v>
       </c>
@@ -5838,7 +5858,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>16255</v>
       </c>
@@ -5849,7 +5869,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>16256</v>
       </c>
@@ -5860,7 +5880,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>16257</v>
       </c>
@@ -5871,7 +5891,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>16258</v>
       </c>
@@ -5882,7 +5902,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>16259</v>
       </c>
@@ -5893,7 +5913,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>16260</v>
       </c>
@@ -5904,7 +5924,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>16261</v>
       </c>
@@ -5915,7 +5935,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>16262</v>
       </c>
@@ -5926,7 +5946,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>16263</v>
       </c>
@@ -5937,7 +5957,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>16264</v>
       </c>
@@ -5948,7 +5968,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>16265</v>
       </c>
@@ -5959,7 +5979,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>16266</v>
       </c>
@@ -5970,7 +5990,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>16267</v>
       </c>
@@ -5981,7 +6001,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>16268</v>
       </c>
@@ -5992,7 +6012,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>16269</v>
       </c>
@@ -6003,7 +6023,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>16270</v>
       </c>
@@ -6014,7 +6034,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>16271</v>
       </c>
@@ -6025,7 +6045,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>16272</v>
       </c>
@@ -6036,7 +6056,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>16273</v>
       </c>
@@ -6047,7 +6067,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>16274</v>
       </c>
@@ -6058,7 +6078,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>16275</v>
       </c>
@@ -6069,7 +6089,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>16276</v>
       </c>
@@ -6080,7 +6100,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>16277</v>
       </c>
@@ -6091,7 +6111,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>16278</v>
       </c>
@@ -6102,7 +6122,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>16279</v>
       </c>
@@ -6113,7 +6133,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>16280</v>
       </c>
@@ -6124,7 +6144,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>16281</v>
       </c>
@@ -6135,7 +6155,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>16282</v>
       </c>
@@ -6146,7 +6166,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>16283</v>
       </c>
@@ -6157,7 +6177,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>16284</v>
       </c>
@@ -6168,7 +6188,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>16285</v>
       </c>
@@ -6179,7 +6199,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>16286</v>
       </c>
@@ -6190,7 +6210,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>16287</v>
       </c>
@@ -6201,7 +6221,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>16288</v>
       </c>
@@ -6212,7 +6232,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>16289</v>
       </c>
@@ -6223,7 +6243,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>16290</v>
       </c>
@@ -6234,7 +6254,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>16291</v>
       </c>
@@ -6245,7 +6265,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>16292</v>
       </c>
@@ -6256,7 +6276,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>16293</v>
       </c>
@@ -6267,7 +6287,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>16294</v>
       </c>
@@ -6278,7 +6298,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>16295</v>
       </c>
@@ -6289,7 +6309,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>16296</v>
       </c>
@@ -6300,7 +6320,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>16297</v>
       </c>
@@ -6311,7 +6331,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>16298</v>
       </c>
@@ -6322,7 +6342,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>16299</v>
       </c>
@@ -6333,7 +6353,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>16300</v>
       </c>
@@ -6344,7 +6364,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>16301</v>
       </c>
@@ -6355,7 +6375,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>16302</v>
       </c>
@@ -6366,7 +6386,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>16303</v>
       </c>
@@ -6377,7 +6397,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>16304</v>
       </c>
@@ -6388,7 +6408,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>16305</v>
       </c>
@@ -6399,7 +6419,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>16306</v>
       </c>
@@ -6410,7 +6430,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>16307</v>
       </c>
@@ -6421,7 +6441,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>16308</v>
       </c>
@@ -6432,7 +6452,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>16309</v>
       </c>
@@ -6443,7 +6463,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>16310</v>
       </c>
@@ -6454,7 +6474,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>16311</v>
       </c>
@@ -6465,7 +6485,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>16312</v>
       </c>
@@ -6476,7 +6496,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>16313</v>
       </c>
@@ -6487,7 +6507,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>16314</v>
       </c>
@@ -6498,7 +6518,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>16315</v>
       </c>
@@ -6509,7 +6529,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>16316</v>
       </c>
@@ -6520,7 +6540,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>16317</v>
       </c>
@@ -6531,7 +6551,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>16318</v>
       </c>
@@ -6542,7 +6562,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>16319</v>
       </c>
@@ -6553,7 +6573,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>16320</v>
       </c>
@@ -6564,7 +6584,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>16321</v>
       </c>
@@ -6575,7 +6595,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>16322</v>
       </c>
@@ -6586,7 +6606,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>16323</v>
       </c>
@@ -6597,7 +6617,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>16324</v>
       </c>
@@ -6608,7 +6628,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>16325</v>
       </c>
@@ -6619,7 +6639,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>16326</v>
       </c>
@@ -6630,7 +6650,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>16327</v>
       </c>
@@ -6641,7 +6661,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>16328</v>
       </c>
@@ -6652,7 +6672,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>16329</v>
       </c>
@@ -6663,7 +6683,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>16330</v>
       </c>
@@ -6674,7 +6694,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>16331</v>
       </c>
@@ -6685,7 +6705,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>16332</v>
       </c>
@@ -6696,7 +6716,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>16333</v>
       </c>
@@ -6707,7 +6727,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>16334</v>
       </c>
@@ -6718,7 +6738,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>16335</v>
       </c>
@@ -6729,7 +6749,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>16336</v>
       </c>
@@ -6740,7 +6760,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>16337</v>
       </c>
@@ -6751,7 +6771,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>16338</v>
       </c>
@@ -6762,7 +6782,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>16339</v>
       </c>
@@ -6773,7 +6793,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>16340</v>
       </c>
@@ -6784,7 +6804,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>16341</v>
       </c>
@@ -6795,7 +6815,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>16342</v>
       </c>
@@ -6806,7 +6826,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>16343</v>
       </c>
@@ -6817,7 +6837,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>16344</v>
       </c>
@@ -6828,7 +6848,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>16345</v>
       </c>
@@ -6839,7 +6859,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>16346</v>
       </c>
@@ -6850,7 +6870,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>16347</v>
       </c>
@@ -6861,7 +6881,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>16348</v>
       </c>
@@ -6872,7 +6892,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>16349</v>
       </c>
@@ -6883,7 +6903,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>16350</v>
       </c>
@@ -6894,7 +6914,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>16351</v>
       </c>
@@ -6905,7 +6925,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>16352</v>
       </c>
@@ -6916,7 +6936,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>16353</v>
       </c>
@@ -6927,7 +6947,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>16354</v>
       </c>
@@ -6938,7 +6958,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>16355</v>
       </c>
@@ -6949,7 +6969,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>16356</v>
       </c>
@@ -6960,7 +6980,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>16357</v>
       </c>
@@ -6971,7 +6991,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>16358</v>
       </c>
@@ -6982,7 +7002,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>16359</v>
       </c>
@@ -6993,7 +7013,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>16360</v>
       </c>
@@ -7004,7 +7024,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>16361</v>
       </c>
@@ -7015,7 +7035,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>16362</v>
       </c>
@@ -7026,7 +7046,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>16363</v>
       </c>
@@ -7037,7 +7057,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>16364</v>
       </c>
@@ -7048,7 +7068,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>16365</v>
       </c>
@@ -7059,7 +7079,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>16366</v>
       </c>
@@ -7070,7 +7090,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>16367</v>
       </c>
@@ -7081,7 +7101,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>16368</v>
       </c>
@@ -7092,7 +7112,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>16369</v>
       </c>
@@ -7103,7 +7123,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>16370</v>
       </c>
@@ -7114,7 +7134,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>16371</v>
       </c>
@@ -7125,7 +7145,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>16372</v>
       </c>
@@ -7136,7 +7156,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>16373</v>
       </c>
@@ -7147,7 +7167,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>16374</v>
       </c>
@@ -7158,7 +7178,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>16375</v>
       </c>
@@ -7169,7 +7189,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>16376</v>
       </c>
@@ -7180,7 +7200,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>16377</v>
       </c>
@@ -7191,7 +7211,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>16378</v>
       </c>
@@ -7202,7 +7222,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>16379</v>
       </c>
@@ -7213,7 +7233,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>16380</v>
       </c>
@@ -7224,7 +7244,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>16381</v>
       </c>
@@ -7235,7 +7255,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>16382</v>
       </c>
@@ -7246,7 +7266,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>16383</v>
       </c>
@@ -7257,7 +7277,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>16384</v>
       </c>
@@ -7268,7 +7288,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>16385</v>
       </c>
@@ -7279,7 +7299,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>16386</v>
       </c>
@@ -7290,7 +7310,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>16387</v>
       </c>
@@ -7301,7 +7321,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>16388</v>
       </c>
@@ -7312,7 +7332,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>16389</v>
       </c>
@@ -7323,7 +7343,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>16390</v>
       </c>
@@ -7334,7 +7354,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>16391</v>
       </c>
@@ -7345,7 +7365,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>16392</v>
       </c>
@@ -7356,7 +7376,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>16393</v>
       </c>
@@ -7367,7 +7387,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>16394</v>
       </c>
@@ -7378,7 +7398,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>16395</v>
       </c>
@@ -7389,7 +7409,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>16396</v>
       </c>
@@ -7400,7 +7420,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>16397</v>
       </c>
@@ -7411,7 +7431,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>16398</v>
       </c>
@@ -7422,7 +7442,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>16399</v>
       </c>
@@ -7433,7 +7453,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>16400</v>
       </c>
@@ -7444,7 +7464,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>16401</v>
       </c>
@@ -7455,7 +7475,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>16402</v>
       </c>
@@ -7466,7 +7486,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>16403</v>
       </c>
@@ -7477,7 +7497,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>16404</v>
       </c>
@@ -7488,7 +7508,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>16405</v>
       </c>
@@ -7499,7 +7519,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>16406</v>
       </c>
@@ -7510,7 +7530,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>16407</v>
       </c>
@@ -7521,7 +7541,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>16408</v>
       </c>
@@ -7532,7 +7552,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>16409</v>
       </c>
@@ -7543,7 +7563,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>16410</v>
       </c>
@@ -7554,7 +7574,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>16411</v>
       </c>
@@ -7565,7 +7585,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>16412</v>
       </c>
@@ -7576,7 +7596,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>16413</v>
       </c>
@@ -7587,7 +7607,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>16414</v>
       </c>
@@ -7598,7 +7618,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>16415</v>
       </c>
@@ -7609,7 +7629,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>16416</v>
       </c>
@@ -7620,7 +7640,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>16417</v>
       </c>
@@ -7631,7 +7651,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>16418</v>
       </c>
@@ -7642,7 +7662,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>16419</v>
       </c>
@@ -7653,7 +7673,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>16420</v>
       </c>
@@ -7664,7 +7684,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>16421</v>
       </c>
@@ -7675,7 +7695,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>16422</v>
       </c>
@@ -7686,7 +7706,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>16423</v>
       </c>
@@ -7697,7 +7717,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>16424</v>
       </c>
@@ -7706,7 +7726,7 @@
       </c>
       <c r="C425" s="1"/>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>16425</v>
       </c>
@@ -7717,7 +7737,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>16426</v>
       </c>
@@ -7728,7 +7748,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>16427</v>
       </c>
@@ -7739,7 +7759,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>16428</v>
       </c>
@@ -7750,7 +7770,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>16429</v>
       </c>
@@ -7761,7 +7781,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>16430</v>
       </c>
@@ -7772,7 +7792,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>16431</v>
       </c>
@@ -7783,7 +7803,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>16432</v>
       </c>
@@ -7794,7 +7814,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>16433</v>
       </c>
@@ -7805,7 +7825,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>16434</v>
       </c>
@@ -7816,7 +7836,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>16435</v>
       </c>
@@ -7827,7 +7847,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>16436</v>
       </c>
@@ -7838,7 +7858,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>16437</v>
       </c>
@@ -7849,7 +7869,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>16438</v>
       </c>
@@ -7860,7 +7880,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>16439</v>
       </c>
@@ -7871,7 +7891,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>16440</v>
       </c>
@@ -7882,7 +7902,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>16441</v>
       </c>
@@ -7893,7 +7913,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>16442</v>
       </c>
@@ -7904,7 +7924,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>16443</v>
       </c>
@@ -7915,7 +7935,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>16444</v>
       </c>
@@ -7926,7 +7946,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>16445</v>
       </c>
@@ -7937,7 +7957,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>16446</v>
       </c>
@@ -7948,7 +7968,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>16447</v>
       </c>
@@ -7959,7 +7979,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>16448</v>
       </c>
@@ -7970,7 +7990,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>16449</v>
       </c>
@@ -7981,7 +8001,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>16450</v>
       </c>
@@ -7992,7 +8012,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>16451</v>
       </c>
@@ -8003,7 +8023,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>16452</v>
       </c>
@@ -8014,7 +8034,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>16453</v>
       </c>
@@ -8025,7 +8045,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>16454</v>
       </c>
@@ -8036,7 +8056,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>16455</v>
       </c>
@@ -8047,7 +8067,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>16456</v>
       </c>
@@ -8058,7 +8078,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>16457</v>
       </c>
@@ -8069,7 +8089,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>16458</v>
       </c>
@@ -8080,7 +8100,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>16459</v>
       </c>
@@ -8091,7 +8111,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>16460</v>
       </c>
@@ -8102,7 +8122,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>16461</v>
       </c>
@@ -8113,7 +8133,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>16462</v>
       </c>
@@ -8124,7 +8144,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>16463</v>
       </c>
@@ -8135,7 +8155,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>16464</v>
       </c>
@@ -8146,7 +8166,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>16465</v>
       </c>
@@ -8157,7 +8177,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>16466</v>
       </c>
@@ -8168,7 +8188,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>16467</v>
       </c>
@@ -8179,7 +8199,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>16468</v>
       </c>
@@ -8190,7 +8210,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>16469</v>
       </c>
@@ -8201,7 +8221,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>16470</v>
       </c>
@@ -8212,7 +8232,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>16471</v>
       </c>
@@ -8223,7 +8243,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>16472</v>
       </c>
@@ -8234,7 +8254,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>16473</v>
       </c>
@@ -8245,7 +8265,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>16474</v>
       </c>
@@ -8256,7 +8276,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>16475</v>
       </c>
@@ -8267,7 +8287,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>16476</v>
       </c>
@@ -8278,7 +8298,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>16477</v>
       </c>
@@ -8289,7 +8309,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>16478</v>
       </c>
@@ -8300,7 +8320,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>16479</v>
       </c>
@@ -8311,7 +8331,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>16480</v>
       </c>
@@ -8322,7 +8342,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>16481</v>
       </c>
@@ -8333,7 +8353,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>16482</v>
       </c>
@@ -8344,7 +8364,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>16483</v>
       </c>
@@ -8355,7 +8375,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>16484</v>
       </c>
@@ -8366,7 +8386,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>16485</v>
       </c>
@@ -8377,7 +8397,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>16486</v>
       </c>
@@ -8388,7 +8408,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>16487</v>
       </c>
@@ -8399,7 +8419,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>16488</v>
       </c>
@@ -8410,7 +8430,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>16489</v>
       </c>
@@ -8421,7 +8441,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>16490</v>
       </c>
@@ -8432,7 +8452,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>16491</v>
       </c>
@@ -8443,7 +8463,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>16492</v>
       </c>
@@ -8454,7 +8474,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>16493</v>
       </c>
@@ -8465,7 +8485,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>16494</v>
       </c>
@@ -8476,7 +8496,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>16495</v>
       </c>
@@ -8487,7 +8507,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>16496</v>
       </c>
@@ -8498,7 +8518,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>16497</v>
       </c>
@@ -8509,7 +8529,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>16498</v>
       </c>
@@ -8520,7 +8540,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>16499</v>
       </c>
@@ -8531,7 +8551,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>16500</v>
       </c>
@@ -8542,7 +8562,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>16501</v>
       </c>
@@ -8553,7 +8573,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>16502</v>
       </c>
@@ -8564,7 +8584,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>16503</v>
       </c>
@@ -8575,7 +8595,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>16504</v>
       </c>
@@ -8586,7 +8606,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>16505</v>
       </c>
@@ -8597,7 +8617,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>16506</v>
       </c>
@@ -8608,7 +8628,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>16507</v>
       </c>
@@ -8619,7 +8639,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>16508</v>
       </c>
@@ -8630,7 +8650,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>16509</v>
       </c>
@@ -8641,7 +8661,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>16510</v>
       </c>
@@ -8652,7 +8672,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>16511</v>
       </c>
@@ -8663,7 +8683,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>16512</v>
       </c>
@@ -8674,7 +8694,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>16513</v>
       </c>
@@ -8685,7 +8705,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>16514</v>
       </c>
@@ -8696,7 +8716,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>16515</v>
       </c>
@@ -8707,7 +8727,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>16516</v>
       </c>
@@ -8718,7 +8738,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>16517</v>
       </c>
@@ -8729,7 +8749,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>16518</v>
       </c>
@@ -8740,7 +8760,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>16519</v>
       </c>
@@ -8751,7 +8771,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>16520</v>
       </c>
@@ -8762,7 +8782,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>16521</v>
       </c>
@@ -8773,7 +8793,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>16522</v>
       </c>
@@ -8784,7 +8804,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>16523</v>
       </c>
@@ -8795,7 +8815,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>16524</v>
       </c>
@@ -8806,7 +8826,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>16525</v>
       </c>
@@ -8817,7 +8837,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>16526</v>
       </c>
@@ -8828,7 +8848,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>16527</v>
       </c>
@@ -8839,7 +8859,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>16528</v>
       </c>
@@ -8850,7 +8870,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>16529</v>
       </c>
@@ -8861,7 +8881,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>16530</v>
       </c>
@@ -8872,7 +8892,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>16531</v>
       </c>
@@ -8883,7 +8903,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>16532</v>
       </c>
@@ -8894,7 +8914,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>16533</v>
       </c>
@@ -8905,7 +8925,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>16534</v>
       </c>
@@ -8916,7 +8936,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>16535</v>
       </c>
@@ -8927,7 +8947,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>16536</v>
       </c>
@@ -8938,7 +8958,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>16537</v>
       </c>
@@ -8949,7 +8969,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>16538</v>
       </c>
@@ -8960,7 +8980,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>16539</v>
       </c>
@@ -8971,7 +8991,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>16540</v>
       </c>
@@ -8982,7 +9002,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>16541</v>
       </c>
@@ -8993,7 +9013,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>16542</v>
       </c>
@@ -9004,7 +9024,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>16543</v>
       </c>
@@ -9015,7 +9035,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>16544</v>
       </c>
@@ -9026,7 +9046,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>16545</v>
       </c>
@@ -9037,7 +9057,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>16546</v>
       </c>
@@ -9048,7 +9068,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>16547</v>
       </c>
@@ -9059,7 +9079,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>16548</v>
       </c>
@@ -9070,7 +9090,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>16549</v>
       </c>
@@ -9081,7 +9101,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>16550</v>
       </c>
@@ -9092,7 +9112,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>16551</v>
       </c>
@@ -9103,7 +9123,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>16552</v>
       </c>
@@ -9114,7 +9134,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>16553</v>
       </c>
@@ -9125,7 +9145,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>16554</v>
       </c>
@@ -9136,7 +9156,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>16555</v>
       </c>
@@ -9147,7 +9167,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>16556</v>
       </c>
@@ -9158,7 +9178,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>16557</v>
       </c>
@@ -9169,7 +9189,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>16558</v>
       </c>
@@ -9180,7 +9200,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>16559</v>
       </c>
@@ -9191,7 +9211,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>16560</v>
       </c>
@@ -9202,7 +9222,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>16561</v>
       </c>
@@ -9213,7 +9233,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>16562</v>
       </c>
@@ -9224,7 +9244,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>16563</v>
       </c>
@@ -9235,7 +9255,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>16564</v>
       </c>
@@ -9246,7 +9266,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>16565</v>
       </c>
@@ -9257,7 +9277,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>16566</v>
       </c>
@@ -9268,7 +9288,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>16567</v>
       </c>
@@ -9279,7 +9299,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>16568</v>
       </c>
@@ -9290,7 +9310,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>16569</v>
       </c>
@@ -9301,7 +9321,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>16570</v>
       </c>
@@ -9312,7 +9332,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>16571</v>
       </c>
@@ -9323,7 +9343,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>16572</v>
       </c>
@@ -9334,7 +9354,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>16573</v>
       </c>
@@ -9345,7 +9365,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>16574</v>
       </c>
@@ -9356,7 +9376,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>16575</v>
       </c>
@@ -9367,7 +9387,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>16576</v>
       </c>
@@ -9378,7 +9398,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>16577</v>
       </c>
@@ -9389,7 +9409,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>16578</v>
       </c>
@@ -9400,7 +9420,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>16579</v>
       </c>
@@ -9411,7 +9431,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>16580</v>
       </c>
@@ -9422,7 +9442,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>16581</v>
       </c>
@@ -9433,7 +9453,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>16582</v>
       </c>
@@ -9444,7 +9464,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>16583</v>
       </c>
@@ -9455,7 +9475,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>16584</v>
       </c>
@@ -9466,7 +9486,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>16585</v>
       </c>
@@ -9477,7 +9497,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>16586</v>
       </c>
@@ -9488,7 +9508,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>16587</v>
       </c>
@@ -9499,7 +9519,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>16588</v>
       </c>
@@ -9510,7 +9530,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>16589</v>
       </c>
@@ -9521,7 +9541,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>16590</v>
       </c>
@@ -9532,7 +9552,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>16591</v>
       </c>
@@ -9543,7 +9563,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>16592</v>
       </c>
@@ -9554,7 +9574,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>16593</v>
       </c>
@@ -9565,7 +9585,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>16594</v>
       </c>
@@ -9576,7 +9596,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>16595</v>
       </c>
@@ -9587,7 +9607,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>16596</v>
       </c>
@@ -9598,7 +9618,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>16597</v>
       </c>
@@ -9609,7 +9629,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>16598</v>
       </c>
@@ -9620,7 +9640,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>16599</v>
       </c>
@@ -9631,7 +9651,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>16600</v>
       </c>
@@ -9642,7 +9662,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>16601</v>
       </c>
@@ -9653,7 +9673,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>16602</v>
       </c>
@@ -9664,7 +9684,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>16603</v>
       </c>
@@ -9675,7 +9695,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>16604</v>
       </c>
@@ -9686,7 +9706,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>16605</v>
       </c>
@@ -9697,7 +9717,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>16606</v>
       </c>
@@ -9708,7 +9728,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>16607</v>
       </c>
@@ -9719,7 +9739,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>16608</v>
       </c>
@@ -9730,7 +9750,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>16609</v>
       </c>
@@ -9741,7 +9761,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>16610</v>
       </c>
@@ -9752,7 +9772,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>16611</v>
       </c>
@@ -9763,7 +9783,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>16612</v>
       </c>
@@ -9774,7 +9794,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>16613</v>
       </c>
@@ -9785,7 +9805,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>16614</v>
       </c>
@@ -9796,7 +9816,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>16615</v>
       </c>
@@ -9807,7 +9827,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>16616</v>
       </c>
@@ -9818,7 +9838,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>16617</v>
       </c>
@@ -9829,7 +9849,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>16618</v>
       </c>
@@ -9840,7 +9860,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>16619</v>
       </c>
@@ -9851,7 +9871,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>16620</v>
       </c>
@@ -9862,7 +9882,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>16621</v>
       </c>
@@ -9873,7 +9893,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>16622</v>
       </c>
@@ -9884,7 +9904,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>16623</v>
       </c>
@@ -9895,7 +9915,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>16624</v>
       </c>
@@ -9906,7 +9926,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>16625</v>
       </c>
@@ -9917,7 +9937,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>16626</v>
       </c>
@@ -9928,7 +9948,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>16627</v>
       </c>
@@ -9939,7 +9959,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>16628</v>
       </c>
@@ -9950,7 +9970,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>16629</v>
       </c>
@@ -9961,7 +9981,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>16630</v>
       </c>
@@ -9972,7 +9992,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>16631</v>
       </c>
@@ -9983,7 +10003,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>16632</v>
       </c>
@@ -9994,7 +10014,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>16633</v>
       </c>
@@ -10005,7 +10025,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>16634</v>
       </c>
@@ -10016,7 +10036,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>16635</v>
       </c>
@@ -10027,7 +10047,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>16636</v>
       </c>
@@ -10038,7 +10058,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>16637</v>
       </c>
@@ -10049,7 +10069,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>16638</v>
       </c>
@@ -10060,7 +10080,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>16639</v>
       </c>
@@ -10071,7 +10091,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>16640</v>
       </c>
@@ -10082,7 +10102,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>16641</v>
       </c>
@@ -10093,7 +10113,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>16642</v>
       </c>
@@ -10104,7 +10124,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>16643</v>
       </c>
@@ -10115,7 +10135,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>16644</v>
       </c>
@@ -10126,7 +10146,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>16645</v>
       </c>
@@ -10137,7 +10157,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>16646</v>
       </c>
@@ -10148,7 +10168,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>16647</v>
       </c>
@@ -10159,7 +10179,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>16648</v>
       </c>
@@ -10170,7 +10190,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>16649</v>
       </c>
@@ -10181,7 +10201,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>16650</v>
       </c>
@@ -10192,7 +10212,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>16651</v>
       </c>
@@ -10203,7 +10223,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>16652</v>
       </c>
@@ -10214,7 +10234,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>16653</v>
       </c>
@@ -10225,7 +10245,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>16654</v>
       </c>
@@ -10236,7 +10256,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>16655</v>
       </c>
@@ -10247,7 +10267,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>16656</v>
       </c>
@@ -10258,7 +10278,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>16657</v>
       </c>
@@ -10269,7 +10289,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>16658</v>
       </c>
@@ -10280,7 +10300,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>16659</v>
       </c>
@@ -10291,7 +10311,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>16660</v>
       </c>
@@ -10302,7 +10322,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>16661</v>
       </c>
@@ -10313,7 +10333,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>16662</v>
       </c>
@@ -10324,7 +10344,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>16663</v>
       </c>
@@ -10335,7 +10355,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>16664</v>
       </c>
@@ -10346,7 +10366,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>16665</v>
       </c>
@@ -10357,7 +10377,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>16666</v>
       </c>
@@ -10368,7 +10388,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>16667</v>
       </c>
@@ -10379,7 +10399,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>16668</v>
       </c>
@@ -10390,7 +10410,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>16669</v>
       </c>
@@ -10401,7 +10421,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>16670</v>
       </c>
@@ -10412,7 +10432,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>16671</v>
       </c>
@@ -10423,7 +10443,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>16672</v>
       </c>
@@ -10434,7 +10454,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>16673</v>
       </c>
@@ -10445,7 +10465,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>16674</v>
       </c>
@@ -10456,7 +10476,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>16675</v>
       </c>
@@ -10467,7 +10487,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>16676</v>
       </c>
@@ -10478,7 +10498,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>16677</v>
       </c>
@@ -10489,7 +10509,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>16678</v>
       </c>
@@ -10500,7 +10520,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>16679</v>
       </c>
@@ -10511,7 +10531,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>16680</v>
       </c>
@@ -10522,7 +10542,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>16681</v>
       </c>
@@ -10533,7 +10553,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>16682</v>
       </c>
@@ -10544,7 +10564,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>16683</v>
       </c>
@@ -10555,7 +10575,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>16684</v>
       </c>
@@ -10566,7 +10586,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>16685</v>
       </c>
@@ -10577,7 +10597,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>16686</v>
       </c>
@@ -10588,7 +10608,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>16687</v>
       </c>
@@ -10599,7 +10619,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>16688</v>
       </c>
@@ -10610,7 +10630,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>16689</v>
       </c>
@@ -10621,7 +10641,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>16690</v>
       </c>
@@ -10632,7 +10652,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <v>16691</v>
       </c>
@@ -10643,7 +10663,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>16692</v>
       </c>
@@ -10654,7 +10674,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>16693</v>
       </c>
@@ -10665,7 +10685,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>16694</v>
       </c>
@@ -10676,7 +10696,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>16695</v>
       </c>
@@ -10687,7 +10707,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>16696</v>
       </c>
@@ -10698,7 +10718,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <v>16697</v>
       </c>
@@ -10709,7 +10729,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>16698</v>
       </c>
@@ -10720,7 +10740,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <v>16699</v>
       </c>
@@ -10731,7 +10751,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <v>16700</v>
       </c>
@@ -10742,7 +10762,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <v>16701</v>
       </c>
@@ -10753,7 +10773,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>16702</v>
       </c>
@@ -10764,7 +10784,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>16703</v>
       </c>
@@ -10775,7 +10795,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <v>16704</v>
       </c>
@@ -10786,7 +10806,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>16705</v>
       </c>
@@ -10797,7 +10817,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>16706</v>
       </c>
@@ -10808,7 +10828,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <v>16707</v>
       </c>
@@ -10819,7 +10839,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <v>16708</v>
       </c>
@@ -10830,7 +10850,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>16709</v>
       </c>
@@ -10841,7 +10861,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <v>16710</v>
       </c>
@@ -10852,7 +10872,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <v>16711</v>
       </c>
@@ -10863,7 +10883,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>16712</v>
       </c>
@@ -10874,7 +10894,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <v>16713</v>
       </c>
@@ -10885,7 +10905,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <v>16714</v>
       </c>
@@ -10896,7 +10916,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
         <v>16715</v>
       </c>
@@ -10907,7 +10927,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <v>16716</v>
       </c>
@@ -10918,7 +10938,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <v>16717</v>
       </c>
@@ -10929,7 +10949,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <v>16718</v>
       </c>
@@ -10940,7 +10960,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <v>16719</v>
       </c>
@@ -10951,7 +10971,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
         <v>16720</v>
       </c>
@@ -10962,7 +10982,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
         <v>16721</v>
       </c>
@@ -10973,7 +10993,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
         <v>16722</v>
       </c>
@@ -10984,7 +11004,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <v>16723</v>
       </c>
@@ -10995,7 +11015,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <v>16724</v>
       </c>
@@ -11006,7 +11026,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <v>16725</v>
       </c>
@@ -11017,7 +11037,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
         <v>16726</v>
       </c>
@@ -11028,7 +11048,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <v>16727</v>
       </c>
@@ -11039,7 +11059,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
         <v>16728</v>
       </c>
@@ -11050,7 +11070,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
         <v>16729</v>
       </c>
@@ -11061,7 +11081,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <v>16730</v>
       </c>
@@ -11072,7 +11092,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <v>16731</v>
       </c>
@@ -11083,7 +11103,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>16732</v>
       </c>
@@ -11094,7 +11114,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <v>16733</v>
       </c>
@@ -11105,7 +11125,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>16734</v>
       </c>
@@ -11116,7 +11136,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
         <v>16735</v>
       </c>
@@ -11127,7 +11147,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
         <v>16736</v>
       </c>
@@ -11138,7 +11158,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
         <v>16737</v>
       </c>
@@ -11149,7 +11169,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
         <v>16738</v>
       </c>
@@ -11160,7 +11180,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
         <v>16739</v>
       </c>
@@ -11171,7 +11191,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
         <v>16740</v>
       </c>
@@ -11182,7 +11202,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
         <v>16741</v>
       </c>
@@ -11193,7 +11213,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
         <v>16742</v>
       </c>
@@ -11204,7 +11224,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
         <v>16743</v>
       </c>
@@ -11215,7 +11235,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
         <v>16744</v>
       </c>
@@ -11226,7 +11246,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
         <v>16745</v>
       </c>
@@ -11237,7 +11257,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
         <v>16746</v>
       </c>
@@ -11248,7 +11268,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
         <v>16747</v>
       </c>
@@ -11259,7 +11279,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
         <v>16748</v>
       </c>
@@ -11270,7 +11290,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
         <v>16749</v>
       </c>
@@ -11281,7 +11301,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
         <v>16750</v>
       </c>
@@ -11292,7 +11312,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
         <v>16751</v>
       </c>
@@ -11303,7 +11323,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
         <v>16752</v>
       </c>
@@ -11314,7 +11334,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
         <v>16753</v>
       </c>
@@ -11325,7 +11345,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
         <v>16754</v>
       </c>
@@ -11336,7 +11356,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
         <v>16755</v>
       </c>
@@ -11347,7 +11367,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
         <v>16756</v>
       </c>
@@ -11358,7 +11378,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
         <v>16757</v>
       </c>
@@ -11369,7 +11389,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
         <v>16758</v>
       </c>
@@ -11380,7 +11400,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
         <v>16759</v>
       </c>
@@ -11391,7 +11411,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
         <v>16760</v>
       </c>
@@ -11402,7 +11422,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
         <v>16761</v>
       </c>
@@ -11413,7 +11433,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
         <v>16762</v>
       </c>
@@ -11424,7 +11444,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
         <v>16763</v>
       </c>
@@ -11435,7 +11455,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
         <v>16764</v>
       </c>
@@ -11446,7 +11466,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
         <v>16765</v>
       </c>
@@ -11457,7 +11477,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
         <v>16766</v>
       </c>
@@ -11468,7 +11488,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
         <v>16767</v>
       </c>
@@ -11479,7 +11499,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
         <v>16768</v>
       </c>
@@ -11490,7 +11510,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
         <v>16769</v>
       </c>
@@ -11501,7 +11521,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
         <v>16770</v>
       </c>
@@ -11512,7 +11532,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
         <v>16771</v>
       </c>
@@ -11523,7 +11543,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
         <v>16772</v>
       </c>
@@ -11534,7 +11554,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
         <v>16773</v>
       </c>
@@ -11545,7 +11565,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
         <v>16774</v>
       </c>
@@ -11556,7 +11576,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
         <v>16775</v>
       </c>
@@ -11567,7 +11587,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
         <v>16776</v>
       </c>
@@ -11578,7 +11598,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
         <v>16777</v>
       </c>
@@ -11589,7 +11609,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
         <v>16778</v>
       </c>
@@ -11600,7 +11620,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
         <v>16779</v>
       </c>
@@ -11611,7 +11631,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
         <v>16780</v>
       </c>
@@ -11622,7 +11642,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
         <v>16781</v>
       </c>
@@ -11633,7 +11653,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
         <v>16782</v>
       </c>
@@ -11644,7 +11664,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
         <v>16783</v>
       </c>
@@ -11655,7 +11675,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
         <v>16784</v>
       </c>
@@ -11666,7 +11686,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
         <v>16785</v>
       </c>
@@ -11677,7 +11697,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
         <v>16786</v>
       </c>
@@ -11688,7 +11708,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
         <v>16787</v>
       </c>
@@ -11699,7 +11719,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
         <v>16788</v>
       </c>
@@ -11710,7 +11730,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
         <v>16789</v>
       </c>
@@ -11721,7 +11741,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
         <v>16790</v>
       </c>
@@ -11732,7 +11752,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
         <v>16791</v>
       </c>
@@ -11741,7 +11761,7 @@
       </c>
       <c r="C792" s="1"/>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
         <v>16792</v>
       </c>
@@ -11752,7 +11772,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
         <v>16793</v>
       </c>
@@ -11763,7 +11783,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
         <v>16794</v>
       </c>
@@ -11774,7 +11794,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
         <v>16795</v>
       </c>
@@ -11785,7 +11805,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
         <v>16796</v>
       </c>
@@ -11796,7 +11816,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
         <v>16797</v>
       </c>
@@ -11807,7 +11827,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
         <v>16798</v>
       </c>
@@ -11818,7 +11838,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
         <v>16799</v>
       </c>
@@ -11829,7 +11849,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
         <v>16800</v>
       </c>
@@ -11840,7 +11860,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A802" s="1">
         <v>16801</v>
       </c>
@@ -11851,7 +11871,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
         <v>16802</v>
       </c>
@@ -11862,7 +11882,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A804" s="1">
         <v>16803</v>
       </c>
@@ -11873,7 +11893,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
         <v>16804</v>
       </c>
@@ -11884,7 +11904,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
         <v>16805</v>
       </c>
@@ -11895,7 +11915,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
         <v>16806</v>
       </c>
@@ -11906,7 +11926,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A808" s="1">
         <v>16807</v>
       </c>
@@ -11917,7 +11937,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
         <v>16808</v>
       </c>
@@ -11928,7 +11948,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
         <v>16809</v>
       </c>
@@ -11939,7 +11959,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
         <v>16810</v>
       </c>
@@ -11950,7 +11970,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
         <v>16811</v>
       </c>
@@ -11961,7 +11981,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
         <v>16812</v>
       </c>
@@ -11972,7 +11992,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
         <v>16813</v>
       </c>
@@ -11983,7 +12003,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
         <v>16814</v>
       </c>
@@ -11994,7 +12014,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
         <v>16815</v>
       </c>
@@ -12005,7 +12025,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
         <v>16816</v>
       </c>
@@ -12016,7 +12036,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A818" s="1">
         <v>16817</v>
       </c>
@@ -12027,7 +12047,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819" s="1">
         <v>16818</v>
       </c>
@@ -12038,7 +12058,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
         <v>16819</v>
       </c>
@@ -12049,7 +12069,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A821" s="1">
         <v>16820</v>
       </c>
@@ -12060,7 +12080,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
         <v>16821</v>
       </c>
@@ -12071,7 +12091,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
         <v>16822</v>
       </c>
@@ -12082,7 +12102,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A824" s="1">
         <v>16823</v>
       </c>
@@ -12093,7 +12113,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
         <v>16824</v>
       </c>
@@ -12104,7 +12124,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
         <v>16825</v>
       </c>
@@ -12115,7 +12135,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
         <v>16826</v>
       </c>
@@ -12124,7 +12144,7 @@
       </c>
       <c r="C827" s="1"/>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
         <v>16827</v>
       </c>
@@ -12135,7 +12155,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
         <v>16828</v>
       </c>
@@ -12146,7 +12166,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A830" s="1">
         <v>16829</v>
       </c>
@@ -12157,7 +12177,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
         <v>16830</v>
       </c>
@@ -12168,7 +12188,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A832" s="1">
         <v>16831</v>
       </c>
@@ -12179,7 +12199,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A833" s="1">
         <v>16832</v>
       </c>
@@ -12190,7 +12210,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
         <v>16833</v>
       </c>
@@ -12201,7 +12221,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
         <v>16834</v>
       </c>
@@ -12212,7 +12232,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
         <v>16835</v>
       </c>
@@ -12223,7 +12243,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A837" s="1">
         <v>16836</v>
       </c>
@@ -12234,7 +12254,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A838" s="1">
         <v>16837</v>
       </c>
@@ -12245,7 +12265,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A839" s="1">
         <v>16838</v>
       </c>
@@ -12256,7 +12276,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A840" s="1">
         <v>16839</v>
       </c>
@@ -12267,7 +12287,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="841" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A841" s="1">
         <v>16840</v>
       </c>
@@ -12278,7 +12298,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A842" s="1">
         <v>16841</v>
       </c>
@@ -12289,7 +12309,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843" s="1">
         <v>16842</v>
       </c>
@@ -12300,7 +12320,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A844" s="1">
         <v>16843</v>
       </c>
@@ -12311,7 +12331,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A845" s="1">
         <v>16844</v>
       </c>
@@ -12322,7 +12342,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A846" s="1">
         <v>16845</v>
       </c>
@@ -12333,7 +12353,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A847" s="1">
         <v>16846</v>
       </c>
@@ -12344,7 +12364,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A848" s="1">
         <v>16847</v>
       </c>
@@ -12355,7 +12375,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A849" s="1">
         <v>16848</v>
       </c>
@@ -12366,7 +12386,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A850" s="1">
         <v>16849</v>
       </c>
@@ -12377,7 +12397,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A851" s="1">
         <v>16850</v>
       </c>
@@ -12388,7 +12408,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A852" s="1">
         <v>16851</v>
       </c>
@@ -12399,7 +12419,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A853" s="1">
         <v>16852</v>
       </c>
@@ -12410,7 +12430,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="854" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A854" s="1">
         <v>16853</v>
       </c>
@@ -12421,7 +12441,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A855" s="1">
         <v>16854</v>
       </c>
@@ -12432,7 +12452,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A856" s="1">
         <v>16855</v>
       </c>
@@ -12443,7 +12463,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="857" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A857" s="1">
         <v>16856</v>
       </c>
@@ -12454,7 +12474,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="858" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A858" s="1">
         <v>16857</v>
       </c>
@@ -12465,7 +12485,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="859" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A859" s="1">
         <v>16858</v>
       </c>
@@ -12476,7 +12496,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="860" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A860" s="1">
         <v>16859</v>
       </c>
@@ -12487,7 +12507,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="861" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A861" s="1">
         <v>16860</v>
       </c>
@@ -12498,7 +12518,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="862" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A862" s="1">
         <v>16861</v>
       </c>
@@ -12509,7 +12529,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="863" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A863" s="1">
         <v>16862</v>
       </c>
@@ -12520,7 +12540,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="864" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A864" s="1">
         <v>16863</v>
       </c>
@@ -12531,7 +12551,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="865" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A865" s="1">
         <v>16864</v>
       </c>
@@ -12542,7 +12562,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="866" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A866" s="1">
         <v>16865</v>
       </c>
@@ -12553,7 +12573,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="867" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A867" s="1">
         <v>16866</v>
       </c>
@@ -12564,7 +12584,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="868" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A868" s="1">
         <v>16867</v>
       </c>
@@ -12575,7 +12595,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="869" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A869" s="1">
         <v>16868</v>
       </c>
@@ -12586,7 +12606,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="870" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A870" s="1">
         <v>16869</v>
       </c>
@@ -12597,7 +12617,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="871" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A871" s="1">
         <v>16870</v>
       </c>
@@ -12608,7 +12628,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="872" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A872" s="1">
         <v>16871</v>
       </c>
@@ -12619,7 +12639,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A873" s="1">
         <v>16872</v>
       </c>
@@ -12630,7 +12650,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="874" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A874" s="1">
         <v>16873</v>
       </c>
@@ -12641,7 +12661,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="875" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A875" s="1">
         <v>16874</v>
       </c>
@@ -12652,7 +12672,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="876" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A876" s="1">
         <v>16875</v>
       </c>
@@ -12663,7 +12683,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="877" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A877" s="1">
         <v>16876</v>
       </c>
@@ -12674,7 +12694,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="878" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A878" s="1">
         <v>16877</v>
       </c>
@@ -12685,7 +12705,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="879" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A879" s="1">
         <v>16878</v>
       </c>
@@ -12696,7 +12716,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="880" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A880" s="1">
         <v>16879</v>
       </c>
@@ -12707,7 +12727,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="881" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A881" s="1">
         <v>16880</v>
       </c>
@@ -12718,7 +12738,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A882" s="1">
         <v>16881</v>
       </c>
@@ -12729,7 +12749,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="883" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A883" s="1">
         <v>16882</v>
       </c>
@@ -12740,7 +12760,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="884" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A884" s="1">
         <v>16883</v>
       </c>
@@ -12751,7 +12771,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="885" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A885" s="1">
         <v>16884</v>
       </c>
@@ -12762,7 +12782,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="886" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A886" s="1">
         <v>16885</v>
       </c>
@@ -12773,7 +12793,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="887" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A887" s="1">
         <v>16886</v>
       </c>
@@ -12784,7 +12804,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="888" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A888" s="1">
         <v>16887</v>
       </c>
@@ -12795,7 +12815,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="889" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A889" s="1">
         <v>16888</v>
       </c>
@@ -12806,7 +12826,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="890" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A890" s="1">
         <v>16889</v>
       </c>
@@ -12817,7 +12837,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="891" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A891" s="1">
         <v>16890</v>
       </c>
@@ -12828,7 +12848,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="892" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A892" s="1">
         <v>16891</v>
       </c>
@@ -12839,7 +12859,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="893" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A893" s="1">
         <v>16892</v>
       </c>
@@ -12850,7 +12870,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="894" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A894" s="1">
         <v>16893</v>
       </c>
@@ -12861,7 +12881,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="895" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A895" s="1">
         <v>16894</v>
       </c>
@@ -12872,7 +12892,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="896" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A896" s="1">
         <v>16895</v>
       </c>
@@ -12883,7 +12903,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="897" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A897" s="1">
         <v>16896</v>
       </c>
@@ -12894,7 +12914,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="898" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A898" s="1">
         <v>16897</v>
       </c>
@@ -12905,7 +12925,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="899" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A899" s="1">
         <v>16898</v>
       </c>
@@ -12916,7 +12936,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="900" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A900" s="1">
         <v>16899</v>
       </c>
@@ -12927,7 +12947,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="901" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A901" s="1">
         <v>16900</v>
       </c>
@@ -12938,7 +12958,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="902" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A902" s="1">
         <v>16901</v>
       </c>
@@ -12949,7 +12969,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="903" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A903" s="1">
         <v>16902</v>
       </c>
@@ -12960,7 +12980,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="904" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A904" s="1">
         <v>16903</v>
       </c>
@@ -12971,7 +12991,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="905" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A905" s="1">
         <v>16904</v>
       </c>
@@ -12982,7 +13002,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="906" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A906" s="1">
         <v>16905</v>
       </c>
@@ -12993,7 +13013,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="907" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A907" s="1">
         <v>16906</v>
       </c>
@@ -13004,7 +13024,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="908" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A908" s="1">
         <v>16907</v>
       </c>
@@ -13015,7 +13035,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="909" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A909" s="1">
         <v>16908</v>
       </c>
@@ -13026,7 +13046,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="910" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A910" s="1">
         <v>16909</v>
       </c>
@@ -13037,7 +13057,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="911" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A911" s="1">
         <v>16910</v>
       </c>
@@ -13048,7 +13068,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="912" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A912" s="1">
         <v>16911</v>
       </c>
@@ -13059,7 +13079,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="913" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A913" s="1">
         <v>16912</v>
       </c>
@@ -13070,7 +13090,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="914" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A914" s="1">
         <v>16913</v>
       </c>
@@ -13081,7 +13101,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="915" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A915" s="1">
         <v>16914</v>
       </c>
@@ -13092,7 +13112,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="916" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A916" s="1">
         <v>16915</v>
       </c>
@@ -13103,7 +13123,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="917" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A917" s="1">
         <v>16916</v>
       </c>
@@ -13114,7 +13134,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="918" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A918" s="1">
         <v>16917</v>
       </c>
@@ -13125,7 +13145,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="919" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A919" s="1">
         <v>16918</v>
       </c>
@@ -13136,7 +13156,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="920" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A920" s="1">
         <v>16919</v>
       </c>
@@ -13147,7 +13167,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="921" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A921" s="1">
         <v>16920</v>
       </c>
@@ -13158,7 +13178,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="922" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A922" s="1">
         <v>16921</v>
       </c>
@@ -13169,7 +13189,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="923" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A923" s="1">
         <v>16922</v>
       </c>
@@ -13180,7 +13200,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="924" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A924" s="1">
         <v>16923</v>
       </c>
@@ -13191,7 +13211,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="925" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A925" s="1">
         <v>16924</v>
       </c>
@@ -13202,7 +13222,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="926" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A926" s="1">
         <v>16925</v>
       </c>
@@ -13213,7 +13233,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="927" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A927" s="1">
         <v>16926</v>
       </c>
@@ -13224,7 +13244,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="928" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A928" s="1">
         <v>16927</v>
       </c>
@@ -13235,7 +13255,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="929" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A929" s="1">
         <v>16928</v>
       </c>
@@ -13246,7 +13266,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="930" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A930" s="1">
         <v>16929</v>
       </c>
@@ -13257,7 +13277,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="931" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A931" s="1">
         <v>16930</v>
       </c>
@@ -13268,7 +13288,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="932" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A932" s="1">
         <v>16931</v>
       </c>
@@ -13279,7 +13299,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="933" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A933" s="1">
         <v>16932</v>
       </c>
@@ -13290,7 +13310,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="934" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A934" s="1">
         <v>16933</v>
       </c>
@@ -13301,7 +13321,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="935" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A935" s="1">
         <v>16934</v>
       </c>
@@ -13312,7 +13332,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="936" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A936" s="1">
         <v>16935</v>
       </c>
@@ -13323,7 +13343,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="937" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A937" s="1">
         <v>16936</v>
       </c>
@@ -13334,7 +13354,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="938" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A938" s="1">
         <v>16937</v>
       </c>
